--- a/created_groups.xlsx
+++ b/created_groups.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:D86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,1713 @@
           <t>Creation Date</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Session</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Group_9099_003401</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>https://t.me/+Q1p6JObPwl00YzI0</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>2024-10-22 00:34:02</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>212621250061</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Group_3395_003401</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>https://t.me/+o5aJTyQGtghiOTNk</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2024-10-22 00:34:02</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>212777687162</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Group_6104_003401</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>https://t.me/+g5HIgXZmUL5kMDhk</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2024-10-22 00:34:02</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>212620819617</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Group_3088_003401</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>https://t.me/+Ch7MKREmNXg3NjVk</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2024-10-22 00:34:02</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>212771813037</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Group_7299_003401</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>https://t.me/+4etgojqgwfViMjg8</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2024-10-22 00:34:02</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>212782547889</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Group_9229_003401</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>https://t.me/+5rMyqozTtz85NWM8</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2024-10-22 00:34:02</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>212617356711</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Group_8187_003401</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>https://t.me/+MlZChMXZQlI4ZjQ0</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2024-10-22 00:34:02</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>212621245300</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Group_6688_003401</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>https://t.me/+w3dp85CyyAIwMDk0</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2024-10-22 00:34:02</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>212777272412</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Group_9429_003401</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>https://t.me/+zWY0yNrwJUBiYTg0</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2024-10-22 00:34:02</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>212674951136</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Group_8001_003401</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>https://t.me/+yjKVkT7-ArAzYzNk</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2024-10-22 00:34:02</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>212771812372</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Group_3752_003401</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>https://t.me/+wIaVsATZz1c2YWM0</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2024-10-22 00:34:02</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>212774972278</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Group_1065_003401</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>https://t.me/+fCPxfGHhhTBkMTY8</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2024-10-22 00:34:02</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>212771452602</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Group_3147_003401</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>https://t.me/+NEf8P6J_-pBhOGI0</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2024-10-22 00:34:02</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>212621251411</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Group_8099_003401</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>https://t.me/+i3rARCSpKj5iZDBk</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2024-10-22 00:34:02</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>212770616560</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Group_2166_003401</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>https://t.me/+nFlrlkNYco1jYzU0</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2024-10-22 00:34:02</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>212656409578</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Group_1563_003401</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>https://t.me/+NqlDBAr-JOEwMjg0</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2024-10-22 00:34:02</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>212621250788</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Group_7667_003401</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>https://t.me/+t58SAA2gLIs1NWNk</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2024-10-22 00:34:02</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>212621250298</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Group_6228_003401</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>https://t.me/+KoOsTRQ0yY5iNDdk</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>2024-10-22 00:34:02</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>212782822152</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Group_9853_003401</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>https://t.me/+pK7Au1wXawtkNDY0</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2024-10-22 00:34:02</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>212614317479</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Group_5771_003401</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>https://t.me/+8BnyURPykJBmYmI0</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2024-10-22 00:34:02</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>212693040747</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Group_5686_003401</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>https://t.me/+tu10Wudo-ag1NjY0</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>2024-10-22 00:34:02</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>212617335057</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Group_9640_003401</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>https://t.me/+XvRPv8Kyg-FjYjc0</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>2024-10-22 00:34:02</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>212779759147</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Group_6582_003401</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>https://t.me/+aR_BnqhFj_BmZmNk</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>2024-10-22 00:34:02</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>212782093715</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Group_9158_003401</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>https://t.me/+90ipN7AjdrM2NTE0</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>2024-10-22 00:34:02</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>212781888565</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Group_4126_003401</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>https://t.me/+7tal-duzh6kyMDE0</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>2024-10-22 00:34:02</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>212621251870</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Group_4162_003401</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>https://t.me/+7F4s634OWJo1MjQ0</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>2024-10-22 00:34:02</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>212674907498</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Group_7726_003401</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>https://t.me/+SzUifANeudMyOGVk</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>2024-10-22 00:34:02</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>212617456846</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Group_8172_003401</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>https://t.me/+TZTjrJ4QO4c5NTg0</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>2024-10-22 00:34:02</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>212612749168</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Group_5212_003401</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>https://t.me/+Ndmhc-VwkYoyZmJk</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>2024-10-22 00:34:02</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>212620822760</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Group_6859_003401</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>https://t.me/+Kd2Vf5No3AhiNzE0</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>2024-10-22 00:34:02</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>212674806887</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Group_6522_003401</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>https://t.me/+vQ1dl0v4os40NjU0</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>2024-10-22 00:34:02</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>212771812095</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Group_1970_003401</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>https://t.me/+aee8W6QykLViODE0</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>2024-10-22 00:34:02</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>212620171438</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Group_5179_003401</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>https://t.me/+TjUayg1IcERkYWRk</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>2024-10-22 00:34:02</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>212656560535</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Group_8530_003401</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>https://t.me/+zGpTivOOdAlkZTQ0</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>2024-10-22 00:34:02</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>212657269369</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Group_7058_003401</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>https://t.me/+palyv3JpaUhkODE0</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>2024-10-22 00:34:02</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>212775247156</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Group_9258_003401</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>https://t.me/+qatX4wOn7E01YmY8</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>2024-10-22 00:34:03</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>212625839423</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Group_2999_003401</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>https://t.me/+hhpWsct6BDtjNzg0</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>2024-10-22 00:34:03</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>212782556210</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Group_4197_003401</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>https://t.me/+dsYxHtBpKzY4YzRk</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>2024-10-22 00:34:03</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>212691775276</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Group_8299_003401</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>https://t.me/+uHUE4cGtvrdmZTNk</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>2024-10-22 00:34:03</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>212674742597</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Group_5653_003401</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>https://t.me/+8TItdjc17gxjNDA8</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>2024-10-22 00:34:03</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>212620172877</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Group_6221_003401</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>https://t.me/+jFOrStjKRjFjNmQ0</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>2024-10-22 00:34:03</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>212612444009</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Group_6036_003401</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>https://t.me/+ITObyYfgCug0N2U0</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>2024-10-22 00:34:03</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>212782825697</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Group_4877_003401</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>https://t.me/+SnpgdUd9bVwwMzk0</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>2024-10-22 00:34:03</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>212674876422</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Group_8013_003401</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>https://t.me/+IVyxg3d5AWBhNTY0</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>2024-10-22 00:34:03</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>212774942860</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Group_2808_003401</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>https://t.me/+Q-slIIfYhmI2YjU0</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>2024-10-22 00:34:03</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>212612273402</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Group_2756_003401</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>https://t.me/+TmKCn6AGtstkOWI0</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>2024-10-22 00:34:03</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>212657279366</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Group_3269_003401</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>https://t.me/+XaJqJt_ypw41Zjg0</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>2024-10-22 00:34:03</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>212657239324</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Group_6131_003401</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>https://t.me/+cnuXYjzQi18wYWU0</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>2024-10-22 00:34:03</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>212657267047</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Group_6176_003401</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>https://t.me/+sn5jRrIPykAyMDI0</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>2024-10-22 00:34:03</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>212621250331</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Group_8054_003401</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>https://t.me/+B-R41SMURZE1YTQ0</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>2024-10-22 00:34:03</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>212617458735</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Group_8957_003401</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>https://t.me/+LYcDgFEI5aYxNWQ8</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>2024-10-22 00:34:03</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>212782816650</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Group_4454_003401</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>https://t.me/+JTpt5KwqbWU3ZGM0</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>2024-10-22 00:34:03</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>212612870722</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Group_3644_003401</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>https://t.me/+mNJZVI1NKsE3ZDVk</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>2024-10-22 00:34:03</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>212657260616</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Group_5070_003401</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>https://t.me/+23D798cOK7gyMjE0</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>2024-10-22 00:34:03</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>212657261366</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Group_4113_003401</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>https://t.me/+wZ7PFPY0xiUwYWU0</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>2024-10-22 00:34:03</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>212614010813</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Group_3311_003401</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>https://t.me/+whA1nFs-3r82YTM0</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>2024-10-22 00:34:03</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>212770721508</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Group_7561_003401</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>https://t.me/+z8aXRiO6cs1lZjU0</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>2024-10-22 00:34:03</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>212632098598</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Group_6105_003401</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>https://t.me/+TPeBHpSDoqo4ZjVk</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>2024-10-22 00:34:03</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>212612623115</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Group_8963_003401</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>https://t.me/+g8jUql62mGpiNGI0</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>2024-10-22 00:34:03</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>212774194439</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Group_5571_003401</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>https://t.me/+Q56yof9bt7E5ODU0</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>2024-10-22 00:34:03</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>212621248268</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Group_3369_003401</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>https://t.me/+8yPpkLMs5kRiNTRk</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>2024-10-22 00:34:03</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>212782822155</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Group_5074_003401</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>https://t.me/+53I_9oMiYyIxYTg0</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>2024-10-22 00:34:03</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>212617455803</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Group_9839_003401</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>https://t.me/+9yXnUyudxHpmNjZk</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>2024-10-22 00:34:03</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>212612906995</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Group_8634_003401</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>https://t.me/+jNyQeoET6j5kMDhk</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>2024-10-22 00:34:03</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>212708467431</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Group_6241_003401</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>https://t.me/+sW-DK0U37tphZWE0</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>2024-10-22 00:34:03</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>212771812296</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Group_2370_003401</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>https://t.me/+Py-NaEmmwcAxOWQ0</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>2024-10-22 00:34:03</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>212782556146</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Group_2274_003401</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>https://t.me/+niALJ0ZYee42NDE8</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>2024-10-22 00:34:03</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>212782061335</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Group_4557_003401</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>https://t.me/+v-WVJ3NUOaNiOTFk</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>2024-10-22 00:34:03</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>212657290089</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Group_3542_003401</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>https://t.me/+nO3nFb42YCQ1MzM8</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>2024-10-22 00:34:03</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>212625748504</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Group_2062_003401</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>https://t.me/+V25roNX2OB04YWFk</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>2024-10-22 00:34:04</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>212771453413</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Group_5296_003401</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>https://t.me/+CkFxnF3_HvwxM2Fk</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>2024-10-22 00:34:04</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>212771812555</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Group_2921_003401</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>https://t.me/+BL-BAm84FjIwYTRk</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>2024-10-22 00:34:04</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>212674850337</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Group_5858_003401</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>https://t.me/+S6th5S3AU7owOWY8</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>2024-10-22 00:34:04</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>212617451617</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Group_2685_003401</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>https://t.me/+p_jNwB4PCmEwOWVk</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>2024-10-22 00:34:04</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>212617323868</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Group_7954_003401</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>https://t.me/+j5JdJ2zfGadhODI0</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>2024-10-22 00:34:04</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>212782823894</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Group_3009_003401</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>https://t.me/+GdsRJIsgEJhkMTJk</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>2024-10-22 00:34:04</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>212782822153</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Group_7660_003401</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>https://t.me/+iuTMSfMj4rU0MDI0</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>2024-10-22 00:34:04</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>212617451375</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Group_6949_003401</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>https://t.me/+Y3reX2sqHxM1YTFk</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>2024-10-22 00:34:04</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>212657275398</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Group_6137_003401</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>https://t.me/+Ck8vZYkfeCozZTc8</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>2024-10-22 00:34:04</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>212690063919</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Group_4984_003401</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>https://t.me/+nt8DRn0XpiIzZDE8</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>2024-10-22 00:34:04</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>212617338268</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Group_8915_003401</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>https://t.me/+GMvZ7tTP4vYzNmZk</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>2024-10-22 00:34:04</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>212782733117</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Group_9575_003401</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>https://t.me/+wDucyH-MFt0yM2M8</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>2024-10-22 00:34:04</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>212656475213</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Group_9443_003401</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>https://t.me/+w_-9n_a3XD1jNTE8</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>2024-10-22 00:34:04</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>212614336845</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Group_1875_003401</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>https://t.me/+yhsx5uLqldk5MDRk</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>2024-10-22 00:34:04</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>212782556216</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Group_6160_003401</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>https://t.me/+MfsrnDxgsdIyMDM0</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>2024-10-22 00:34:04</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>212771815028</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/created_groups.xlsx
+++ b/created_groups.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D86"/>
+  <dimension ref="A1:D256"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2151,9 +2151,3409 @@
           <t>2024-10-22 00:34:04</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>212771815028</t>
+      <c r="D86" t="n">
+        <v>212771815028</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Group_8312_123901</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>https://t.me/+ziXaXY-IjONmNDdk</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>2024-10-22 12:39:03</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>212621250061</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Group_7520_123901</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>https://t.me/+HpI8lRrzygdjNWY0</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>2024-10-22 12:39:03</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>212657279366</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Group_8089_123901</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>https://t.me/+id1OviagB_UxNjZk</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>2024-10-22 12:39:03</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>212770721508</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Group_9390_123901</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>https://t.me/+mvQtwcUaqh8zMzY0</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>2024-10-22 12:39:03</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>212621251411</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Group_4763_123901</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>https://t.me/+s85oqaYM97c1Zjlk</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>2024-10-22 12:39:03</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>212617451617</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Group_3952_123901</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>https://t.me/+H5UaZDPKt9Q0YmU0</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>2024-10-22 12:39:03</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>212774942860</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Group_3279_123901</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>https://t.me/+vGBM8vAU6Lk1MjM0</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>2024-10-22 12:39:03</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>212674876422</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Group_1399_123901</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>https://t.me/+6uZB27fDVxwxNDM0</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>2024-10-22 12:39:03</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>212771812296</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Group_1160_123901</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>https://t.me/+ZP-k0BLJeHRmNDA0</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>2024-10-22 12:39:03</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>212620171438</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Group_9779_123901</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>https://t.me/+TmAmYZ0mYgllZTNk</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>2024-10-22 12:39:03</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>212781888565</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Group_3515_123901</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>https://t.me/+KKsPx3NIlKQxY2U8</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>2024-10-22 12:39:03</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>212612444009</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Group_9134_123901</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>https://t.me/+fgrfBqVnBGBhMjJk</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>2024-10-22 12:39:04</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>212617338268</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Group_3811_123901</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>https://t.me/+ed5hFpELliUzZWJk</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>2024-10-22 12:39:04</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>212656409578</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Group_2023_123901</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>https://t.me/+pfRhTOV9Z-JmN2M0</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>2024-10-22 12:39:04</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>212657239324</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Group_1922_123901</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>https://t.me/+4GZ9avaZgUZkNGM0</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>2024-10-22 12:39:04</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>212782816650</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Group_9516_123901</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>https://t.me/+0-ws5jPmYyY0ZWE0</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>2024-10-22 12:39:04</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>212657290089</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Group_6418_123901</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>https://t.me/+0l4uM6T6j15hYmU0</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>2024-10-22 12:39:04</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
+        <v>212614336845</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Group_1303_123901</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>https://t.me/+fQ8iw3HwQtkyZjFk</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>2024-10-22 12:39:04</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>212782556146</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Group_3646_123901</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>https://t.me/+GdXTimNsuxo4MWZk</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>2024-10-22 12:39:04</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>212774972278</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Group_2416_123901</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>https://t.me/+n9JPH6xE_PMwYzk0</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>2024-10-22 12:39:04</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
+        <v>212625748504</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Group_9715_123901</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>https://t.me/+v2ezb4elF6ViM2Zk</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>2024-10-22 12:39:04</t>
+        </is>
+      </c>
+      <c r="D107" t="n">
+        <v>212782556216</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Group_6844_123901</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>https://t.me/+hpZ5KhdsB69kYTM8</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>2024-10-22 12:39:04</t>
+        </is>
+      </c>
+      <c r="D108" t="n">
+        <v>212771453413</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Group_1705_123901</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>https://t.me/+iHdaZ8UFAelmZTRk</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>2024-10-22 12:39:04</t>
+        </is>
+      </c>
+      <c r="D109" t="n">
+        <v>212779759147</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Group_4295_123901</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>https://t.me/+lkI-vaPOPdc5OGU0</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>2024-10-22 12:39:04</t>
+        </is>
+      </c>
+      <c r="D110" t="n">
+        <v>212612870722</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Group_9578_123901</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>https://t.me/+PqkLB_T2nKg4OWY0</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>2024-10-22 12:39:04</t>
+        </is>
+      </c>
+      <c r="D111" t="n">
+        <v>212621250788</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Group_6067_123901</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>https://t.me/+EqQaw5GcaYc0Mjg0</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>2024-10-22 12:39:04</t>
+        </is>
+      </c>
+      <c r="D112" t="n">
+        <v>212782822152</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Group_8202_123901</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>https://t.me/+wuv1SoOsJmI3MDI0</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>2024-10-22 12:39:04</t>
+        </is>
+      </c>
+      <c r="D113" t="n">
+        <v>212777272412</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Group_4484_123901</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>https://t.me/+2G4VZ1CTbgViYzM0</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>2024-10-22 12:39:04</t>
+        </is>
+      </c>
+      <c r="D114" t="n">
+        <v>212674742597</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Group_4329_123901</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>https://t.me/+lWLgmVN0cr9hM2Y8</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>2024-10-22 12:39:04</t>
+        </is>
+      </c>
+      <c r="D115" t="n">
+        <v>212656560535</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Group_4583_123901</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>https://t.me/+lqT3Ca_lnPc3M2Rk</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>2024-10-22 12:39:04</t>
+        </is>
+      </c>
+      <c r="D116" t="n">
+        <v>212614317479</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Group_7719_123901</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>https://t.me/+9WshG8DlCtoxM2I8</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>2024-10-22 12:39:04</t>
+        </is>
+      </c>
+      <c r="D117" t="n">
+        <v>212617456846</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Group_8737_123901</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>https://t.me/+Ae8gZqPQydMyMDNk</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>2024-10-22 12:39:05</t>
+        </is>
+      </c>
+      <c r="D118" t="n">
+        <v>212621250298</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Group_2542_123901</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>https://t.me/+aqC_tRnm3DplZjBk</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>2024-10-22 12:39:05</t>
+        </is>
+      </c>
+      <c r="D119" t="n">
+        <v>212612623115</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Group_9122_123901</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>https://t.me/+Df26m2gF_gBlNzQ8</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>2024-10-22 12:39:05</t>
+        </is>
+      </c>
+      <c r="D120" t="n">
+        <v>212774194439</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Group_9382_123901</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>https://t.me/+683HaeqguL4yMTY0</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>2024-10-22 12:39:05</t>
+        </is>
+      </c>
+      <c r="D121" t="n">
+        <v>212632098598</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Group_6821_123901</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>https://t.me/+GiAhzctY55RkYmU0</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>2024-10-22 12:39:05</t>
+        </is>
+      </c>
+      <c r="D122" t="n">
+        <v>212782547889</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Group_8350_123901</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>https://t.me/+AkdrNe0t7IhiMzNk</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>2024-10-22 12:39:05</t>
+        </is>
+      </c>
+      <c r="D123" t="n">
+        <v>212621248268</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Group_8705_123901</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>https://t.me/+2qK_3VDcO5lhOGZk</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>2024-10-22 12:39:05</t>
+        </is>
+      </c>
+      <c r="D124" t="n">
+        <v>212614010813</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Group_9290_123901</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>https://t.me/+IxOIpVcpKmhiNjhk</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>2024-10-22 12:39:05</t>
+        </is>
+      </c>
+      <c r="D125" t="n">
+        <v>212621251870</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Group_2997_123901</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>https://t.me/+mgOXGi22WlxjZTM8</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>2024-10-22 12:39:05</t>
+        </is>
+      </c>
+      <c r="D126" t="n">
+        <v>212674850337</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Group_9756_123901</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>https://t.me/+VWV51uA9u5syMDE0</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>2024-10-22 12:39:05</t>
+        </is>
+      </c>
+      <c r="D127" t="n">
+        <v>212612906995</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Group_4548_123901</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>https://t.me/+mK8W3y1DAj84YjU0</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>2024-10-22 12:39:05</t>
+        </is>
+      </c>
+      <c r="D128" t="n">
+        <v>212612273402</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Group_9133_123901</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>https://t.me/+TGEcSYh3OfFmNDZk</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>2024-10-22 12:39:05</t>
+        </is>
+      </c>
+      <c r="D129" t="n">
+        <v>212657261366</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Group_6976_123901</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>https://t.me/+Jc7_7GIBf08wNGY0</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>2024-10-22 12:39:05</t>
+        </is>
+      </c>
+      <c r="D130" t="n">
+        <v>212657275398</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Group_3368_123901</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>https://t.me/+iwgx-R9xdl80OGY0</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>2024-10-22 12:39:05</t>
+        </is>
+      </c>
+      <c r="D131" t="n">
+        <v>212775247156</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Group_8109_123901</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>https://t.me/+kJDb7MKT49c4YWRk</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>2024-10-22 12:39:05</t>
+        </is>
+      </c>
+      <c r="D132" t="n">
+        <v>212674907498</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Group_6103_123901</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>https://t.me/+_APW7alB5KsyMzg0</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>2024-10-22 12:39:05</t>
+        </is>
+      </c>
+      <c r="D133" t="n">
+        <v>212625839423</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Group_9179_123901</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>https://t.me/+plmJgmsLSB9kN2Nk</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>2024-10-22 12:39:05</t>
+        </is>
+      </c>
+      <c r="D134" t="n">
+        <v>212620172877</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Group_8275_123901</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>https://t.me/+Il0x8gIzs7Y2NmE8</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>2024-10-22 12:39:05</t>
+        </is>
+      </c>
+      <c r="D135" t="n">
+        <v>212674806887</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Group_4020_123901</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>https://t.me/+q9q1xyHtnPw3ZWJk</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>2024-10-22 12:39:06</t>
+        </is>
+      </c>
+      <c r="D136" t="n">
+        <v>212693040747</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Group_4821_123901</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>https://t.me/+yQAG69XqbkI0NDc0</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>2024-10-22 12:39:06</t>
+        </is>
+      </c>
+      <c r="D137" t="n">
+        <v>212708467431</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Group_3568_123901</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>https://t.me/+sCGkDOF63ohjOTg0</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>2024-10-22 12:39:06</t>
+        </is>
+      </c>
+      <c r="D138" t="n">
+        <v>212617451375</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Group_4309_123901</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>https://t.me/+K_BQg-SkChQ5OGZk</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>2024-10-22 12:39:06</t>
+        </is>
+      </c>
+      <c r="D139" t="n">
+        <v>212617356711</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Group_8663_123901</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>https://t.me/+0PpfY5yh-U5jM2Q0</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>2024-10-22 12:39:06</t>
+        </is>
+      </c>
+      <c r="D140" t="n">
+        <v>212771813037</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Group_6621_123901</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>https://t.me/+Lr2U4mQ6EJthMzE0</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>2024-10-22 12:39:06</t>
+        </is>
+      </c>
+      <c r="D141" t="n">
+        <v>212782822153</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Group_3891_123901</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>https://t.me/+JmTwahZI5BE4MDJk</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>2024-10-22 12:39:06</t>
+        </is>
+      </c>
+      <c r="D142" t="n">
+        <v>212782556210</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Group_8563_123901</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>https://t.me/+dIiNppKQS6Q1ZGJk</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>2024-10-22 12:39:06</t>
+        </is>
+      </c>
+      <c r="D143" t="n">
+        <v>212620819617</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Group_5075_123901</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>https://t.me/+A-ls1TI5v6pmZjg0</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>2024-10-22 12:39:06</t>
+        </is>
+      </c>
+      <c r="D144" t="n">
+        <v>212657260616</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Group_7220_123901</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>https://t.me/+m-HSIPvgMJQwMWY8</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>2024-10-22 12:39:06</t>
+        </is>
+      </c>
+      <c r="D145" t="n">
+        <v>212782733117</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Group_5513_123901</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>https://t.me/+VVwzQTuxBOYwZGM0</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>2024-10-22 12:39:06</t>
+        </is>
+      </c>
+      <c r="D146" t="n">
+        <v>212617335057</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Group_2229_123901</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>https://t.me/+ogKIthLmo8IwZWU0</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>2024-10-22 12:39:06</t>
+        </is>
+      </c>
+      <c r="D147" t="n">
+        <v>212674951136</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Group_1724_123901</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>https://t.me/+MraS63zD2blhMzI0</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>2024-10-22 12:39:06</t>
+        </is>
+      </c>
+      <c r="D148" t="n">
+        <v>212782823894</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Group_7021_123902</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>https://t.me/+VjSSKIcMlJwwZGVk</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>2024-10-22 12:39:06</t>
+        </is>
+      </c>
+      <c r="D149" t="n">
+        <v>212690063919</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Group_6344_123901</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>https://t.me/+-vOdoquRnu5hYzNk</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>2024-10-22 12:39:07</t>
+        </is>
+      </c>
+      <c r="D150" t="n">
+        <v>212691775276</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Group_7261_123901</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>https://t.me/+gmVxdRCkCQVhOTM0</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>2024-10-22 12:39:07</t>
+        </is>
+      </c>
+      <c r="D151" t="n">
+        <v>212771452602</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Group_4927_123901</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>https://t.me/+M5ub9HZPtqFkYmQ8</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>2024-10-22 12:39:07</t>
+        </is>
+      </c>
+      <c r="D152" t="n">
+        <v>212770616560</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Group_6631_123901</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>https://t.me/+R8mSwaKHqGRlMjA0</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>2024-10-22 12:39:07</t>
+        </is>
+      </c>
+      <c r="D153" t="n">
+        <v>212782825697</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Group_1682_123901</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>https://t.me/+i7MnW2hl9Yc0M2I0</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>2024-10-22 12:39:07</t>
+        </is>
+      </c>
+      <c r="D154" t="n">
+        <v>212771812095</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Group_5255_123901</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>https://t.me/+1uQDafbvWoo0ZmQ0</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>2024-10-22 12:39:07</t>
+        </is>
+      </c>
+      <c r="D155" t="n">
+        <v>212782061335</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Group_7756_123901</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>https://t.me/+md7Vkmrw-ZxkMzJk</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>2024-10-22 12:39:07</t>
+        </is>
+      </c>
+      <c r="D156" t="n">
+        <v>212771812372</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Group_9098_123901</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>https://t.me/+HU0QcsjpvoFhNDE0</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>2024-10-22 12:39:07</t>
+        </is>
+      </c>
+      <c r="D157" t="n">
+        <v>212657269369</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Group_8807_123901</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>https://t.me/+XjqgjWlAVJdjYTJk</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>2024-10-22 12:39:07</t>
+        </is>
+      </c>
+      <c r="D158" t="n">
+        <v>212621245300</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Group_4103_123901</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>https://t.me/+NeOf5m5UZ8o1ZDJk</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>2024-10-22 12:39:07</t>
+        </is>
+      </c>
+      <c r="D159" t="n">
+        <v>212617458735</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Group_7799_123901</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>https://t.me/+oN2miG2hXmYzZTc0</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>2024-10-22 12:39:07</t>
+        </is>
+      </c>
+      <c r="D160" t="n">
+        <v>212620822760</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Group_6619_123901</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>https://t.me/+OnnqiLMU-1tjNzM0</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>2024-10-22 12:39:07</t>
+        </is>
+      </c>
+      <c r="D161" t="n">
+        <v>212617455803</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Group_3684_123901</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>https://t.me/+7nIPbSzgMb4wMTNk</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>2024-10-22 12:39:07</t>
+        </is>
+      </c>
+      <c r="D162" t="n">
+        <v>212617323868</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Group_7334_123901</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>https://t.me/+To65rF-kXLFhYTJk</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>2024-10-22 12:39:07</t>
+        </is>
+      </c>
+      <c r="D163" t="n">
+        <v>212771812555</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Group_2003_123902</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>https://t.me/+GEyvcfTPhX5hODBk</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>2024-10-22 12:39:07</t>
+        </is>
+      </c>
+      <c r="D164" t="n">
+        <v>212777687162</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Group_5926_123901</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>https://t.me/+k0hQUUwYNB83YTI0</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>2024-10-22 12:39:07</t>
+        </is>
+      </c>
+      <c r="D165" t="n">
+        <v>212657267047</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Group_6917_123901</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>https://t.me/+G6EvaNqdJ0s2ZTI0</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>2024-10-22 12:39:08</t>
+        </is>
+      </c>
+      <c r="D166" t="n">
+        <v>212782822155</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Group_6298_123901</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>https://t.me/+YbX8b01FWBxiZjg8</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>2024-10-22 12:39:08</t>
+        </is>
+      </c>
+      <c r="D167" t="n">
+        <v>212621250331</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Group_7778_123901</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>https://t.me/+lDLLgqDN8CZkNGJk</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>2024-10-22 12:39:08</t>
+        </is>
+      </c>
+      <c r="D168" t="n">
+        <v>212771815028</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Group_3410_123902</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>https://t.me/+4VG4VdtbT3gwMGVk</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>2024-10-22 12:39:08</t>
+        </is>
+      </c>
+      <c r="D169" t="n">
+        <v>212782093715</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Group_8862_123902</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>https://t.me/+Od5tmz4xDFA4OWVk</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>2024-10-22 12:39:08</t>
+        </is>
+      </c>
+      <c r="D170" t="n">
+        <v>212612749168</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Group_8095_123902</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>https://t.me/+cBNu7lBW6DgzYTE0</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>2024-10-22 12:39:08</t>
+        </is>
+      </c>
+      <c r="D171" t="n">
+        <v>212656475213</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Group_2058_201200</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>https://t.me/+SIrhtH4S1kc4MmM8</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>2024-10-22 20:12:02</t>
+        </is>
+      </c>
+      <c r="D172" t="n">
+        <v>212691775276</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Group_6517_201200</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>https://t.me/+WyX-QjfpUexjMWQ0</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>2024-10-22 20:12:02</t>
+        </is>
+      </c>
+      <c r="D173" t="n">
+        <v>212774942860</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Group_1090_201200</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>https://t.me/+iVf9FYapwqljZjE0</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>2024-10-22 20:12:02</t>
+        </is>
+      </c>
+      <c r="D174" t="n">
+        <v>212770721508</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Group_8640_201200</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>https://t.me/+IRkMFITCywJiOTY8</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>2024-10-22 20:12:02</t>
+        </is>
+      </c>
+      <c r="D175" t="n">
+        <v>212674742597</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Group_5278_201200</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>https://t.me/+NHEopuCRANY3ZTk0</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>2024-10-22 20:12:02</t>
+        </is>
+      </c>
+      <c r="D176" t="n">
+        <v>212617458735</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Group_7766_201200</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>https://t.me/+YhigTTvimjowNDY0</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>2024-10-22 20:12:02</t>
+        </is>
+      </c>
+      <c r="D177" t="n">
+        <v>212674806887</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Group_1845_201200</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>https://t.me/+NAz4E4udGkJmN2M0</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>2024-10-22 20:12:02</t>
+        </is>
+      </c>
+      <c r="D178" t="n">
+        <v>212632098598</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Group_4387_201200</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>https://t.me/+Yb9ti7uKKl5jOWZk</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>2024-10-22 20:12:02</t>
+        </is>
+      </c>
+      <c r="D179" t="n">
+        <v>212617451375</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Group_7095_201201</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>https://t.me/+hSgFal52zGxkNWJk</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>2024-10-22 20:12:02</t>
+        </is>
+      </c>
+      <c r="D180" t="n">
+        <v>212612749168</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Group_5566_201200</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>https://t.me/+kUJNXuzkMjUwNTBk</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>2024-10-22 20:12:02</t>
+        </is>
+      </c>
+      <c r="D181" t="n">
+        <v>212771815028</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Group_3421_201200</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>https://t.me/+4Y8ZHLvt0LpjNTk0</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>2024-10-22 20:12:02</t>
+        </is>
+      </c>
+      <c r="D182" t="n">
+        <v>212674951136</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Group_8508_201200</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>https://t.me/+ZGpB9lR2FyI4YTc0</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>2024-10-22 20:12:02</t>
+        </is>
+      </c>
+      <c r="D183" t="n">
+        <v>212782556146</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Group_6294_201201</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>https://t.me/+oQtVxVCuk2k2OGFk</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>2024-10-22 20:12:02</t>
+        </is>
+      </c>
+      <c r="D184" t="n">
+        <v>212625748504</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Group_2402_201200</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>https://t.me/+PWd24u0lI3MwODI0</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>2024-10-22 20:12:02</t>
+        </is>
+      </c>
+      <c r="D185" t="n">
+        <v>212777272412</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Group_4867_201201</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>https://t.me/+Z8PxZGGWMr9hYTI0</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>2024-10-22 20:12:02</t>
+        </is>
+      </c>
+      <c r="D186" t="n">
+        <v>212774972278</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Group_5160_201200</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>https://t.me/+G7L5VRiRZfE3ZWQ0</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>2024-10-22 20:12:02</t>
+        </is>
+      </c>
+      <c r="D187" t="n">
+        <v>212620172877</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Group_5053_201200</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>https://t.me/+GGvZ-mF7VIg2MDRk</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>2024-10-22 20:12:02</t>
+        </is>
+      </c>
+      <c r="D188" t="n">
+        <v>212708467431</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Group_1968_201200</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>https://t.me/+SunZIuIsTW5lMzE0</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>2024-10-22 20:12:03</t>
+        </is>
+      </c>
+      <c r="D189" t="n">
+        <v>212620822760</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Group_2517_201200</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>https://t.me/+NPpCYfeZH_A5NzBk</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>2024-10-22 20:12:03</t>
+        </is>
+      </c>
+      <c r="D190" t="n">
+        <v>212690063919</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Group_1013_201200</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>https://t.me/+wjML7J09S6RmMmJk</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>2024-10-22 20:12:03</t>
+        </is>
+      </c>
+      <c r="D191" t="n">
+        <v>212774194439</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Group_3297_201201</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>https://t.me/+3WbJhlNgk0lmOTE0</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>2024-10-22 20:12:03</t>
+        </is>
+      </c>
+      <c r="D192" t="n">
+        <v>212657275398</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Group_8304_201200</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>https://t.me/+ZyZKtLjqDSliNTlk</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>2024-10-22 20:12:03</t>
+        </is>
+      </c>
+      <c r="D193" t="n">
+        <v>212771812555</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Group_2558_201201</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>https://t.me/+a7Iklvx526RlZGU0</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>2024-10-22 20:12:03</t>
+        </is>
+      </c>
+      <c r="D194" t="n">
+        <v>212656560535</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Group_4901_201201</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>https://t.me/+0bqJ61qlqfs1OTQ0</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>2024-10-22 20:12:03</t>
+        </is>
+      </c>
+      <c r="D195" t="n">
+        <v>212621250331</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Group_9457_201201</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>https://t.me/+xRypzaHqc0pjMDU0</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>2024-10-22 20:12:03</t>
+        </is>
+      </c>
+      <c r="D196" t="n">
+        <v>212625839423</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Group_5587_201201</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>https://t.me/+-cp3GR12pgY3ZmRk</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>2024-10-22 20:12:03</t>
+        </is>
+      </c>
+      <c r="D197" t="n">
+        <v>212771812296</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Group_9441_201201</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>https://t.me/+O6MoJRRQf8k1ZjI0</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>2024-10-22 20:12:03</t>
+        </is>
+      </c>
+      <c r="D198" t="n">
+        <v>212777687162</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Group_6125_201201</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>https://t.me/+8ZW9jDN6eWplMTdk</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>2024-10-22 20:12:03</t>
+        </is>
+      </c>
+      <c r="D199" t="n">
+        <v>212612906995</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Group_6206_201200</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>https://t.me/+IKrtQY-Z4aBlYmZk</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>2024-10-22 20:12:03</t>
+        </is>
+      </c>
+      <c r="D200" t="n">
+        <v>212617451617</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Group_7957_201200</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>https://t.me/+SukDsU69g99jYTc0</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>2024-10-22 20:12:03</t>
+        </is>
+      </c>
+      <c r="D201" t="n">
+        <v>212657260616</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Group_9485_201201</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>https://t.me/+nGsDOoz4QZMyMjQ0</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>2024-10-22 20:12:03</t>
+        </is>
+      </c>
+      <c r="D202" t="n">
+        <v>212771813037</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Group_3620_201201</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>https://t.me/+vtPxt9d3g7c0MzNk</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>2024-10-22 20:12:03</t>
+        </is>
+      </c>
+      <c r="D203" t="n">
+        <v>212674907498</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Group_9392_201201</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>https://t.me/+bHyctgeRLfwyM2U0</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>2024-10-22 20:12:04</t>
+        </is>
+      </c>
+      <c r="D204" t="n">
+        <v>212775247156</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Group_4747_201201</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>https://t.me/+D_g-1wZiXu85MmM0</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>2024-10-22 20:12:04</t>
+        </is>
+      </c>
+      <c r="D205" t="n">
+        <v>212617356711</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Group_4796_201201</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>https://t.me/+SuBbE_6GLcI1NDRk</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>2024-10-22 20:12:04</t>
+        </is>
+      </c>
+      <c r="D206" t="n">
+        <v>212782822155</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Group_5510_201201</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>https://t.me/+wfaiPMp9WvllODk0</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>2024-10-22 20:12:04</t>
+        </is>
+      </c>
+      <c r="D207" t="n">
+        <v>212771812372</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Group_5609_201201</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>https://t.me/+HdjAlr05jXZmMThk</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>2024-10-22 20:12:04</t>
+        </is>
+      </c>
+      <c r="D208" t="n">
+        <v>212617456846</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Group_6604_201201</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>https://t.me/+Ud0OUx9eNkNhYTFk</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>2024-10-22 20:12:04</t>
+        </is>
+      </c>
+      <c r="D209" t="n">
+        <v>212621250061</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Group_1273_201201</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>https://t.me/+Ynzdoi6meJRkZmM8</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>2024-10-22 20:12:04</t>
+        </is>
+      </c>
+      <c r="D210" t="n">
+        <v>212614010813</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Group_1304_201201</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>https://t.me/+Oa0n9umFd144ODM0</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>2024-10-22 20:12:04</t>
+        </is>
+      </c>
+      <c r="D211" t="n">
+        <v>212782816650</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Group_6416_201201</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>https://t.me/+zXCW5FmolE0zMmU0</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>2024-10-22 20:12:04</t>
+        </is>
+      </c>
+      <c r="D212" t="n">
+        <v>212782061335</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Group_1563_201201</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>https://t.me/+4qFJXbIPLdFmNGQ0</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>2024-10-22 20:12:04</t>
+        </is>
+      </c>
+      <c r="D213" t="n">
+        <v>212621248268</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Group_4404_201201</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>https://t.me/+VDIa1hTvdfA5YWI0</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>2024-10-22 20:12:04</t>
+        </is>
+      </c>
+      <c r="D214" t="n">
+        <v>212657261366</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Group_3369_201201</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>https://t.me/+38HyfMsGEWM4M2Y0</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>2024-10-22 20:12:04</t>
+        </is>
+      </c>
+      <c r="D215" t="n">
+        <v>212656475213</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Group_2374_201200</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>https://t.me/+NvzK89MeqY5iODY0</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>2024-10-22 20:12:04</t>
+        </is>
+      </c>
+      <c r="D216" t="n">
+        <v>212782822152</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Group_9286_201201</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>https://t.me/+0ktVGepo4tI3MTg0</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>2024-10-22 20:12:04</t>
+        </is>
+      </c>
+      <c r="D217" t="n">
+        <v>212617338268</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Group_7210_201201</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>https://t.me/+rXYd1ZGxrlA1YThk</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>2024-10-22 20:12:04</t>
+        </is>
+      </c>
+      <c r="D218" t="n">
+        <v>212782822153</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Group_8381_201201</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>https://t.me/+Fb2QSBxlxS0yZDVk</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>2024-10-22 20:12:05</t>
+        </is>
+      </c>
+      <c r="D219" t="n">
+        <v>212621250298</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Group_3437_201201</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>https://t.me/+5KENAQTjrJRjYzQ0</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>2024-10-22 20:12:05</t>
+        </is>
+      </c>
+      <c r="D220" t="n">
+        <v>212657239324</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Group_6322_201201</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>https://t.me/+d7oeCzg7AvVlYTQ0</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>2024-10-22 20:12:05</t>
+        </is>
+      </c>
+      <c r="D221" t="n">
+        <v>212674876422</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Group_1592_201201</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>https://t.me/+_AxDY1dEbM4zMDVk</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>2024-10-22 20:12:05</t>
+        </is>
+      </c>
+      <c r="D222" t="n">
+        <v>212657279366</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Group_5447_201201</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>https://t.me/+nsPn2xZlnvVkMzFk</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>2024-10-22 20:12:05</t>
+        </is>
+      </c>
+      <c r="D223" t="n">
+        <v>212612273402</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Group_9314_201201</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>https://t.me/+_EH732G6ssxlNDZk</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>2024-10-22 20:12:05</t>
+        </is>
+      </c>
+      <c r="D224" t="n">
+        <v>212621245300</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Group_8222_201201</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>https://t.me/+Z-_hPHyEwQxiMTY0</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>2024-10-22 20:12:05</t>
+        </is>
+      </c>
+      <c r="D225" t="n">
+        <v>212693040747</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Group_2497_201201</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>https://t.me/+DKCl1gvao0hkMTI0</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>2024-10-22 20:12:05</t>
+        </is>
+      </c>
+      <c r="D226" t="n">
+        <v>212621251870</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Group_1615_201201</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>https://t.me/+5Q7ZhoKEfORhMmVk</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>2024-10-22 20:12:05</t>
+        </is>
+      </c>
+      <c r="D227" t="n">
+        <v>212617335057</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Group_3073_201201</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>https://t.me/+mn_D4VvPFu5mM2Y0</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>2024-10-22 20:12:05</t>
+        </is>
+      </c>
+      <c r="D228" t="n">
+        <v>212771453413</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Group_2393_201201</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>https://t.me/+Vk20zXXwnAlhZjZk</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>2024-10-22 20:12:05</t>
+        </is>
+      </c>
+      <c r="D229" t="n">
+        <v>212782823894</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Group_2412_201201</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>https://t.me/+CVUOZs6TF5c2NzFk</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>2024-10-22 20:12:05</t>
+        </is>
+      </c>
+      <c r="D230" t="n">
+        <v>212782733117</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Group_2042_201201</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>https://t.me/+76-6VCF8D14xZTJk</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>2024-10-22 20:12:05</t>
+        </is>
+      </c>
+      <c r="D231" t="n">
+        <v>212782093715</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Group_8515_201201</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>https://t.me/+18SjbcoKoFYwMGQ0</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>2024-10-22 20:12:06</t>
+        </is>
+      </c>
+      <c r="D232" t="n">
+        <v>212612623115</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Group_9519_201201</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>https://t.me/+3NMMDhGg6ogwZTk0</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>2024-10-22 20:12:06</t>
+        </is>
+      </c>
+      <c r="D233" t="n">
+        <v>212771452602</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Group_3497_201201</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>https://t.me/+In3NeL3IT2cxMWI0</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>2024-10-22 20:12:06</t>
+        </is>
+      </c>
+      <c r="D234" t="n">
+        <v>212657290089</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Group_7688_201201</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>https://t.me/+XMCLw6N4fBYzMWRk</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>2024-10-22 20:12:06</t>
+        </is>
+      </c>
+      <c r="D235" t="n">
+        <v>212621251411</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Group_4787_201200</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>https://t.me/+s-mPZXtIQlFhMTU0</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>2024-10-22 20:12:06</t>
+        </is>
+      </c>
+      <c r="D236" t="n">
+        <v>212781888565</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Group_7415_201201</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>https://t.me/+rxokrhsLE8Q2NjY0</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>2024-10-22 20:12:06</t>
+        </is>
+      </c>
+      <c r="D237" t="n">
+        <v>212782556210</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Group_6232_201201</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>https://t.me/+GhFPRhpmS9swNWJk</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>2024-10-22 20:12:06</t>
+        </is>
+      </c>
+      <c r="D238" t="n">
+        <v>212620171438</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Group_7386_201201</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>https://t.me/+c-a-zWD66tg4MTg8</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>2024-10-22 20:12:06</t>
+        </is>
+      </c>
+      <c r="D239" t="n">
+        <v>212620819617</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Group_5028_201201</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>https://t.me/+OAk8NrK8BJFlYjY0</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>2024-10-22 20:12:06</t>
+        </is>
+      </c>
+      <c r="D240" t="n">
+        <v>212779759147</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Group_1894_201201</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>https://t.me/+gr2Otvcg9e5jZjJk</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>2024-10-22 20:12:06</t>
+        </is>
+      </c>
+      <c r="D241" t="n">
+        <v>212656409578</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Group_4037_201201</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>https://t.me/+GnaYk6v3-jw5ZWQ0</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>2024-10-22 20:12:06</t>
+        </is>
+      </c>
+      <c r="D242" t="n">
+        <v>212617455803</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Group_4515_201201</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>https://t.me/+lWiqC1FGOtAzMDY0</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>2024-10-22 20:12:06</t>
+        </is>
+      </c>
+      <c r="D243" t="n">
+        <v>212657267047</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Group_1840_201201</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>https://t.me/+skLXLodqMh83MGNk</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>2024-10-22 20:12:07</t>
+        </is>
+      </c>
+      <c r="D244" t="n">
+        <v>212617323868</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Group_2232_201201</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>https://t.me/+bYf6kVQgcjdmNDE0</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>2024-10-22 20:12:07</t>
+        </is>
+      </c>
+      <c r="D245" t="n">
+        <v>212770616560</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Group_4293_201201</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>https://t.me/+qjc-rCs0D1YwZWM0</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>2024-10-22 20:12:07</t>
+        </is>
+      </c>
+      <c r="D246" t="n">
+        <v>212782547889</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Group_3295_201201</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>https://t.me/+MhzV9WD5xVxlZjM0</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>2024-10-22 20:12:07</t>
+        </is>
+      </c>
+      <c r="D247" t="n">
+        <v>212612444009</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Group_9541_201201</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>https://t.me/+bvv7lrkLbUQ5NzNk</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>2024-10-22 20:12:07</t>
+        </is>
+      </c>
+      <c r="D248" t="n">
+        <v>212674850337</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Group_9690_201201</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>https://t.me/+mwCV5sfP4AMyNDJk</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>2024-10-22 20:12:07</t>
+        </is>
+      </c>
+      <c r="D249" t="n">
+        <v>212614336845</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Group_5388_201201</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>https://t.me/+UH5gl1yz5TFjNzU0</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>2024-10-22 20:12:07</t>
+        </is>
+      </c>
+      <c r="D250" t="n">
+        <v>212614317479</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Group_1435_201201</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>https://t.me/+c78SPs8MBzU3MTZk</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>2024-10-22 20:12:07</t>
+        </is>
+      </c>
+      <c r="D251" t="n">
+        <v>212612870722</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Group_4943_201201</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>https://t.me/+pAMcfTxtaY5lZmQ0</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>2024-10-22 20:12:07</t>
+        </is>
+      </c>
+      <c r="D252" t="n">
+        <v>212657269369</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Group_4575_201201</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>https://t.me/+nX1gFstrvME1ZmU0</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>2024-10-22 20:12:07</t>
+        </is>
+      </c>
+      <c r="D253" t="n">
+        <v>212771812095</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Group_5461_201201</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>https://t.me/+sY9J35bqwitjODM0</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>2024-10-22 20:12:07</t>
+        </is>
+      </c>
+      <c r="D254" t="n">
+        <v>212782825697</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Group_6766_201201</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>https://t.me/+lL54VrKJALIzMDlk</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>2024-10-22 20:12:07</t>
+        </is>
+      </c>
+      <c r="D255" t="n">
+        <v>212782556216</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Group_4008_201201</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>https://t.me/+rwPGYxj1dfk2MGY0</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>2024-10-22 20:12:08</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>212621250788</t>
         </is>
       </c>
     </row>

--- a/created_groups.xlsx
+++ b/created_groups.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D256"/>
+  <dimension ref="A1:E257"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,11 @@
           <t>Session</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Profile</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -474,6 +479,7 @@
       <c r="D2" t="n">
         <v>212621250061</v>
       </c>
+      <c r="E2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -494,6 +500,7 @@
       <c r="D3" t="n">
         <v>212777687162</v>
       </c>
+      <c r="E3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -514,6 +521,7 @@
       <c r="D4" t="n">
         <v>212620819617</v>
       </c>
+      <c r="E4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -534,6 +542,7 @@
       <c r="D5" t="n">
         <v>212771813037</v>
       </c>
+      <c r="E5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -554,6 +563,7 @@
       <c r="D6" t="n">
         <v>212782547889</v>
       </c>
+      <c r="E6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -574,6 +584,7 @@
       <c r="D7" t="n">
         <v>212617356711</v>
       </c>
+      <c r="E7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -594,6 +605,7 @@
       <c r="D8" t="n">
         <v>212621245300</v>
       </c>
+      <c r="E8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -614,6 +626,7 @@
       <c r="D9" t="n">
         <v>212777272412</v>
       </c>
+      <c r="E9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -634,6 +647,7 @@
       <c r="D10" t="n">
         <v>212674951136</v>
       </c>
+      <c r="E10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -654,6 +668,7 @@
       <c r="D11" t="n">
         <v>212771812372</v>
       </c>
+      <c r="E11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -674,6 +689,7 @@
       <c r="D12" t="n">
         <v>212774972278</v>
       </c>
+      <c r="E12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -694,6 +710,7 @@
       <c r="D13" t="n">
         <v>212771452602</v>
       </c>
+      <c r="E13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -714,6 +731,7 @@
       <c r="D14" t="n">
         <v>212621251411</v>
       </c>
+      <c r="E14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -734,6 +752,7 @@
       <c r="D15" t="n">
         <v>212770616560</v>
       </c>
+      <c r="E15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -754,6 +773,7 @@
       <c r="D16" t="n">
         <v>212656409578</v>
       </c>
+      <c r="E16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -774,6 +794,7 @@
       <c r="D17" t="n">
         <v>212621250788</v>
       </c>
+      <c r="E17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -794,6 +815,7 @@
       <c r="D18" t="n">
         <v>212621250298</v>
       </c>
+      <c r="E18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -814,6 +836,7 @@
       <c r="D19" t="n">
         <v>212782822152</v>
       </c>
+      <c r="E19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -834,6 +857,7 @@
       <c r="D20" t="n">
         <v>212614317479</v>
       </c>
+      <c r="E20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -854,6 +878,7 @@
       <c r="D21" t="n">
         <v>212693040747</v>
       </c>
+      <c r="E21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -874,6 +899,7 @@
       <c r="D22" t="n">
         <v>212617335057</v>
       </c>
+      <c r="E22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -894,6 +920,7 @@
       <c r="D23" t="n">
         <v>212779759147</v>
       </c>
+      <c r="E23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -914,6 +941,7 @@
       <c r="D24" t="n">
         <v>212782093715</v>
       </c>
+      <c r="E24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -934,6 +962,7 @@
       <c r="D25" t="n">
         <v>212781888565</v>
       </c>
+      <c r="E25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -954,6 +983,7 @@
       <c r="D26" t="n">
         <v>212621251870</v>
       </c>
+      <c r="E26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -974,6 +1004,7 @@
       <c r="D27" t="n">
         <v>212674907498</v>
       </c>
+      <c r="E27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -994,6 +1025,7 @@
       <c r="D28" t="n">
         <v>212617456846</v>
       </c>
+      <c r="E28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1014,6 +1046,7 @@
       <c r="D29" t="n">
         <v>212612749168</v>
       </c>
+      <c r="E29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1034,6 +1067,7 @@
       <c r="D30" t="n">
         <v>212620822760</v>
       </c>
+      <c r="E30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1054,6 +1088,7 @@
       <c r="D31" t="n">
         <v>212674806887</v>
       </c>
+      <c r="E31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1074,6 +1109,7 @@
       <c r="D32" t="n">
         <v>212771812095</v>
       </c>
+      <c r="E32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1094,6 +1130,7 @@
       <c r="D33" t="n">
         <v>212620171438</v>
       </c>
+      <c r="E33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1114,6 +1151,7 @@
       <c r="D34" t="n">
         <v>212656560535</v>
       </c>
+      <c r="E34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1134,6 +1172,7 @@
       <c r="D35" t="n">
         <v>212657269369</v>
       </c>
+      <c r="E35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1154,6 +1193,7 @@
       <c r="D36" t="n">
         <v>212775247156</v>
       </c>
+      <c r="E36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1174,6 +1214,7 @@
       <c r="D37" t="n">
         <v>212625839423</v>
       </c>
+      <c r="E37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1194,6 +1235,7 @@
       <c r="D38" t="n">
         <v>212782556210</v>
       </c>
+      <c r="E38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1214,6 +1256,7 @@
       <c r="D39" t="n">
         <v>212691775276</v>
       </c>
+      <c r="E39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1234,6 +1277,7 @@
       <c r="D40" t="n">
         <v>212674742597</v>
       </c>
+      <c r="E40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1254,6 +1298,7 @@
       <c r="D41" t="n">
         <v>212620172877</v>
       </c>
+      <c r="E41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1274,6 +1319,7 @@
       <c r="D42" t="n">
         <v>212612444009</v>
       </c>
+      <c r="E42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1294,6 +1340,7 @@
       <c r="D43" t="n">
         <v>212782825697</v>
       </c>
+      <c r="E43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1314,6 +1361,7 @@
       <c r="D44" t="n">
         <v>212674876422</v>
       </c>
+      <c r="E44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1334,6 +1382,7 @@
       <c r="D45" t="n">
         <v>212774942860</v>
       </c>
+      <c r="E45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1354,6 +1403,7 @@
       <c r="D46" t="n">
         <v>212612273402</v>
       </c>
+      <c r="E46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1374,6 +1424,7 @@
       <c r="D47" t="n">
         <v>212657279366</v>
       </c>
+      <c r="E47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1394,6 +1445,7 @@
       <c r="D48" t="n">
         <v>212657239324</v>
       </c>
+      <c r="E48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1414,6 +1466,7 @@
       <c r="D49" t="n">
         <v>212657267047</v>
       </c>
+      <c r="E49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1434,6 +1487,7 @@
       <c r="D50" t="n">
         <v>212621250331</v>
       </c>
+      <c r="E50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1454,6 +1508,7 @@
       <c r="D51" t="n">
         <v>212617458735</v>
       </c>
+      <c r="E51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1474,6 +1529,7 @@
       <c r="D52" t="n">
         <v>212782816650</v>
       </c>
+      <c r="E52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -1494,6 +1550,7 @@
       <c r="D53" t="n">
         <v>212612870722</v>
       </c>
+      <c r="E53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -1514,6 +1571,7 @@
       <c r="D54" t="n">
         <v>212657260616</v>
       </c>
+      <c r="E54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -1534,6 +1592,7 @@
       <c r="D55" t="n">
         <v>212657261366</v>
       </c>
+      <c r="E55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -1554,6 +1613,7 @@
       <c r="D56" t="n">
         <v>212614010813</v>
       </c>
+      <c r="E56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -1574,6 +1634,7 @@
       <c r="D57" t="n">
         <v>212770721508</v>
       </c>
+      <c r="E57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -1594,6 +1655,7 @@
       <c r="D58" t="n">
         <v>212632098598</v>
       </c>
+      <c r="E58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -1614,6 +1676,7 @@
       <c r="D59" t="n">
         <v>212612623115</v>
       </c>
+      <c r="E59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -1634,6 +1697,7 @@
       <c r="D60" t="n">
         <v>212774194439</v>
       </c>
+      <c r="E60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -1654,6 +1718,7 @@
       <c r="D61" t="n">
         <v>212621248268</v>
       </c>
+      <c r="E61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -1674,6 +1739,7 @@
       <c r="D62" t="n">
         <v>212782822155</v>
       </c>
+      <c r="E62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -1694,6 +1760,7 @@
       <c r="D63" t="n">
         <v>212617455803</v>
       </c>
+      <c r="E63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -1714,6 +1781,7 @@
       <c r="D64" t="n">
         <v>212612906995</v>
       </c>
+      <c r="E64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -1734,6 +1802,7 @@
       <c r="D65" t="n">
         <v>212708467431</v>
       </c>
+      <c r="E65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -1754,6 +1823,7 @@
       <c r="D66" t="n">
         <v>212771812296</v>
       </c>
+      <c r="E66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -1774,6 +1844,7 @@
       <c r="D67" t="n">
         <v>212782556146</v>
       </c>
+      <c r="E67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -1794,6 +1865,7 @@
       <c r="D68" t="n">
         <v>212782061335</v>
       </c>
+      <c r="E68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -1814,6 +1886,7 @@
       <c r="D69" t="n">
         <v>212657290089</v>
       </c>
+      <c r="E69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -1834,6 +1907,7 @@
       <c r="D70" t="n">
         <v>212625748504</v>
       </c>
+      <c r="E70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -1854,6 +1928,7 @@
       <c r="D71" t="n">
         <v>212771453413</v>
       </c>
+      <c r="E71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -1874,6 +1949,7 @@
       <c r="D72" t="n">
         <v>212771812555</v>
       </c>
+      <c r="E72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -1894,6 +1970,7 @@
       <c r="D73" t="n">
         <v>212674850337</v>
       </c>
+      <c r="E73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -1914,6 +1991,7 @@
       <c r="D74" t="n">
         <v>212617451617</v>
       </c>
+      <c r="E74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -1934,6 +2012,7 @@
       <c r="D75" t="n">
         <v>212617323868</v>
       </c>
+      <c r="E75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -1954,6 +2033,7 @@
       <c r="D76" t="n">
         <v>212782823894</v>
       </c>
+      <c r="E76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -1974,6 +2054,7 @@
       <c r="D77" t="n">
         <v>212782822153</v>
       </c>
+      <c r="E77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -1994,6 +2075,7 @@
       <c r="D78" t="n">
         <v>212617451375</v>
       </c>
+      <c r="E78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -2014,6 +2096,7 @@
       <c r="D79" t="n">
         <v>212657275398</v>
       </c>
+      <c r="E79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -2034,6 +2117,7 @@
       <c r="D80" t="n">
         <v>212690063919</v>
       </c>
+      <c r="E80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -2054,6 +2138,7 @@
       <c r="D81" t="n">
         <v>212617338268</v>
       </c>
+      <c r="E81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -2074,6 +2159,7 @@
       <c r="D82" t="n">
         <v>212782733117</v>
       </c>
+      <c r="E82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -2094,6 +2180,7 @@
       <c r="D83" t="n">
         <v>212656475213</v>
       </c>
+      <c r="E83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -2114,6 +2201,7 @@
       <c r="D84" t="n">
         <v>212614336845</v>
       </c>
+      <c r="E84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -2134,6 +2222,7 @@
       <c r="D85" t="n">
         <v>212782556216</v>
       </c>
+      <c r="E85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -2154,6 +2243,7 @@
       <c r="D86" t="n">
         <v>212771815028</v>
       </c>
+      <c r="E86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -2174,6 +2264,7 @@
       <c r="D87" t="n">
         <v>212621250061</v>
       </c>
+      <c r="E87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -2194,6 +2285,7 @@
       <c r="D88" t="n">
         <v>212657279366</v>
       </c>
+      <c r="E88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -2214,6 +2306,7 @@
       <c r="D89" t="n">
         <v>212770721508</v>
       </c>
+      <c r="E89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -2234,6 +2327,7 @@
       <c r="D90" t="n">
         <v>212621251411</v>
       </c>
+      <c r="E90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -2254,6 +2348,7 @@
       <c r="D91" t="n">
         <v>212617451617</v>
       </c>
+      <c r="E91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -2274,6 +2369,7 @@
       <c r="D92" t="n">
         <v>212774942860</v>
       </c>
+      <c r="E92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -2294,6 +2390,7 @@
       <c r="D93" t="n">
         <v>212674876422</v>
       </c>
+      <c r="E93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -2314,6 +2411,7 @@
       <c r="D94" t="n">
         <v>212771812296</v>
       </c>
+      <c r="E94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -2334,6 +2432,7 @@
       <c r="D95" t="n">
         <v>212620171438</v>
       </c>
+      <c r="E95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -2354,6 +2453,7 @@
       <c r="D96" t="n">
         <v>212781888565</v>
       </c>
+      <c r="E96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -2374,6 +2474,7 @@
       <c r="D97" t="n">
         <v>212612444009</v>
       </c>
+      <c r="E97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -2394,6 +2495,7 @@
       <c r="D98" t="n">
         <v>212617338268</v>
       </c>
+      <c r="E98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -2414,6 +2516,7 @@
       <c r="D99" t="n">
         <v>212656409578</v>
       </c>
+      <c r="E99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -2434,6 +2537,7 @@
       <c r="D100" t="n">
         <v>212657239324</v>
       </c>
+      <c r="E100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -2454,6 +2558,7 @@
       <c r="D101" t="n">
         <v>212782816650</v>
       </c>
+      <c r="E101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -2474,6 +2579,7 @@
       <c r="D102" t="n">
         <v>212657290089</v>
       </c>
+      <c r="E102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -2494,6 +2600,7 @@
       <c r="D103" t="n">
         <v>212614336845</v>
       </c>
+      <c r="E103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -2514,6 +2621,7 @@
       <c r="D104" t="n">
         <v>212782556146</v>
       </c>
+      <c r="E104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -2534,6 +2642,7 @@
       <c r="D105" t="n">
         <v>212774972278</v>
       </c>
+      <c r="E105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -2554,6 +2663,7 @@
       <c r="D106" t="n">
         <v>212625748504</v>
       </c>
+      <c r="E106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -2574,6 +2684,7 @@
       <c r="D107" t="n">
         <v>212782556216</v>
       </c>
+      <c r="E107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -2594,6 +2705,7 @@
       <c r="D108" t="n">
         <v>212771453413</v>
       </c>
+      <c r="E108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -2614,6 +2726,7 @@
       <c r="D109" t="n">
         <v>212779759147</v>
       </c>
+      <c r="E109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -2634,6 +2747,7 @@
       <c r="D110" t="n">
         <v>212612870722</v>
       </c>
+      <c r="E110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -2654,6 +2768,7 @@
       <c r="D111" t="n">
         <v>212621250788</v>
       </c>
+      <c r="E111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -2674,6 +2789,7 @@
       <c r="D112" t="n">
         <v>212782822152</v>
       </c>
+      <c r="E112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -2694,6 +2810,7 @@
       <c r="D113" t="n">
         <v>212777272412</v>
       </c>
+      <c r="E113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -2714,6 +2831,7 @@
       <c r="D114" t="n">
         <v>212674742597</v>
       </c>
+      <c r="E114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -2734,6 +2852,7 @@
       <c r="D115" t="n">
         <v>212656560535</v>
       </c>
+      <c r="E115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -2754,6 +2873,7 @@
       <c r="D116" t="n">
         <v>212614317479</v>
       </c>
+      <c r="E116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -2774,6 +2894,7 @@
       <c r="D117" t="n">
         <v>212617456846</v>
       </c>
+      <c r="E117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -2794,6 +2915,7 @@
       <c r="D118" t="n">
         <v>212621250298</v>
       </c>
+      <c r="E118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -2814,6 +2936,7 @@
       <c r="D119" t="n">
         <v>212612623115</v>
       </c>
+      <c r="E119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -2834,6 +2957,7 @@
       <c r="D120" t="n">
         <v>212774194439</v>
       </c>
+      <c r="E120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -2854,6 +2978,7 @@
       <c r="D121" t="n">
         <v>212632098598</v>
       </c>
+      <c r="E121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -2874,6 +2999,7 @@
       <c r="D122" t="n">
         <v>212782547889</v>
       </c>
+      <c r="E122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -2894,6 +3020,7 @@
       <c r="D123" t="n">
         <v>212621248268</v>
       </c>
+      <c r="E123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -2914,6 +3041,7 @@
       <c r="D124" t="n">
         <v>212614010813</v>
       </c>
+      <c r="E124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -2934,6 +3062,7 @@
       <c r="D125" t="n">
         <v>212621251870</v>
       </c>
+      <c r="E125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -2954,6 +3083,7 @@
       <c r="D126" t="n">
         <v>212674850337</v>
       </c>
+      <c r="E126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -2974,6 +3104,7 @@
       <c r="D127" t="n">
         <v>212612906995</v>
       </c>
+      <c r="E127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -2994,6 +3125,7 @@
       <c r="D128" t="n">
         <v>212612273402</v>
       </c>
+      <c r="E128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -3014,6 +3146,7 @@
       <c r="D129" t="n">
         <v>212657261366</v>
       </c>
+      <c r="E129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -3034,6 +3167,7 @@
       <c r="D130" t="n">
         <v>212657275398</v>
       </c>
+      <c r="E130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -3054,6 +3188,7 @@
       <c r="D131" t="n">
         <v>212775247156</v>
       </c>
+      <c r="E131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -3074,6 +3209,7 @@
       <c r="D132" t="n">
         <v>212674907498</v>
       </c>
+      <c r="E132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -3094,6 +3230,7 @@
       <c r="D133" t="n">
         <v>212625839423</v>
       </c>
+      <c r="E133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -3114,6 +3251,7 @@
       <c r="D134" t="n">
         <v>212620172877</v>
       </c>
+      <c r="E134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -3134,6 +3272,7 @@
       <c r="D135" t="n">
         <v>212674806887</v>
       </c>
+      <c r="E135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -3154,6 +3293,7 @@
       <c r="D136" t="n">
         <v>212693040747</v>
       </c>
+      <c r="E136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -3174,6 +3314,7 @@
       <c r="D137" t="n">
         <v>212708467431</v>
       </c>
+      <c r="E137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -3194,6 +3335,7 @@
       <c r="D138" t="n">
         <v>212617451375</v>
       </c>
+      <c r="E138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -3214,6 +3356,7 @@
       <c r="D139" t="n">
         <v>212617356711</v>
       </c>
+      <c r="E139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -3234,6 +3377,7 @@
       <c r="D140" t="n">
         <v>212771813037</v>
       </c>
+      <c r="E140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -3254,6 +3398,7 @@
       <c r="D141" t="n">
         <v>212782822153</v>
       </c>
+      <c r="E141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -3274,6 +3419,7 @@
       <c r="D142" t="n">
         <v>212782556210</v>
       </c>
+      <c r="E142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -3294,6 +3440,7 @@
       <c r="D143" t="n">
         <v>212620819617</v>
       </c>
+      <c r="E143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -3314,6 +3461,7 @@
       <c r="D144" t="n">
         <v>212657260616</v>
       </c>
+      <c r="E144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -3334,6 +3482,7 @@
       <c r="D145" t="n">
         <v>212782733117</v>
       </c>
+      <c r="E145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -3354,6 +3503,7 @@
       <c r="D146" t="n">
         <v>212617335057</v>
       </c>
+      <c r="E146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -3374,6 +3524,7 @@
       <c r="D147" t="n">
         <v>212674951136</v>
       </c>
+      <c r="E147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -3394,6 +3545,7 @@
       <c r="D148" t="n">
         <v>212782823894</v>
       </c>
+      <c r="E148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -3414,6 +3566,7 @@
       <c r="D149" t="n">
         <v>212690063919</v>
       </c>
+      <c r="E149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -3434,6 +3587,7 @@
       <c r="D150" t="n">
         <v>212691775276</v>
       </c>
+      <c r="E150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -3454,6 +3608,7 @@
       <c r="D151" t="n">
         <v>212771452602</v>
       </c>
+      <c r="E151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -3474,6 +3629,7 @@
       <c r="D152" t="n">
         <v>212770616560</v>
       </c>
+      <c r="E152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -3494,6 +3650,7 @@
       <c r="D153" t="n">
         <v>212782825697</v>
       </c>
+      <c r="E153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -3514,6 +3671,7 @@
       <c r="D154" t="n">
         <v>212771812095</v>
       </c>
+      <c r="E154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -3534,6 +3692,7 @@
       <c r="D155" t="n">
         <v>212782061335</v>
       </c>
+      <c r="E155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -3554,6 +3713,7 @@
       <c r="D156" t="n">
         <v>212771812372</v>
       </c>
+      <c r="E156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -3574,6 +3734,7 @@
       <c r="D157" t="n">
         <v>212657269369</v>
       </c>
+      <c r="E157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -3594,6 +3755,7 @@
       <c r="D158" t="n">
         <v>212621245300</v>
       </c>
+      <c r="E158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -3614,6 +3776,7 @@
       <c r="D159" t="n">
         <v>212617458735</v>
       </c>
+      <c r="E159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -3634,6 +3797,7 @@
       <c r="D160" t="n">
         <v>212620822760</v>
       </c>
+      <c r="E160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -3654,6 +3818,7 @@
       <c r="D161" t="n">
         <v>212617455803</v>
       </c>
+      <c r="E161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -3674,6 +3839,7 @@
       <c r="D162" t="n">
         <v>212617323868</v>
       </c>
+      <c r="E162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -3694,6 +3860,7 @@
       <c r="D163" t="n">
         <v>212771812555</v>
       </c>
+      <c r="E163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -3714,6 +3881,7 @@
       <c r="D164" t="n">
         <v>212777687162</v>
       </c>
+      <c r="E164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -3734,6 +3902,7 @@
       <c r="D165" t="n">
         <v>212657267047</v>
       </c>
+      <c r="E165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -3754,6 +3923,7 @@
       <c r="D166" t="n">
         <v>212782822155</v>
       </c>
+      <c r="E166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -3774,6 +3944,7 @@
       <c r="D167" t="n">
         <v>212621250331</v>
       </c>
+      <c r="E167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -3794,6 +3965,7 @@
       <c r="D168" t="n">
         <v>212771815028</v>
       </c>
+      <c r="E168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -3814,6 +3986,7 @@
       <c r="D169" t="n">
         <v>212782093715</v>
       </c>
+      <c r="E169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -3834,6 +4007,7 @@
       <c r="D170" t="n">
         <v>212612749168</v>
       </c>
+      <c r="E170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -3854,6 +4028,7 @@
       <c r="D171" t="n">
         <v>212656475213</v>
       </c>
+      <c r="E171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -3874,6 +4049,7 @@
       <c r="D172" t="n">
         <v>212691775276</v>
       </c>
+      <c r="E172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -3894,6 +4070,7 @@
       <c r="D173" t="n">
         <v>212774942860</v>
       </c>
+      <c r="E173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -3914,6 +4091,7 @@
       <c r="D174" t="n">
         <v>212770721508</v>
       </c>
+      <c r="E174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -3934,6 +4112,7 @@
       <c r="D175" t="n">
         <v>212674742597</v>
       </c>
+      <c r="E175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -3954,6 +4133,7 @@
       <c r="D176" t="n">
         <v>212617458735</v>
       </c>
+      <c r="E176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -3974,6 +4154,7 @@
       <c r="D177" t="n">
         <v>212674806887</v>
       </c>
+      <c r="E177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -3994,6 +4175,7 @@
       <c r="D178" t="n">
         <v>212632098598</v>
       </c>
+      <c r="E178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -4014,6 +4196,7 @@
       <c r="D179" t="n">
         <v>212617451375</v>
       </c>
+      <c r="E179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -4034,6 +4217,7 @@
       <c r="D180" t="n">
         <v>212612749168</v>
       </c>
+      <c r="E180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -4054,6 +4238,7 @@
       <c r="D181" t="n">
         <v>212771815028</v>
       </c>
+      <c r="E181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -4074,6 +4259,7 @@
       <c r="D182" t="n">
         <v>212674951136</v>
       </c>
+      <c r="E182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -4094,6 +4280,7 @@
       <c r="D183" t="n">
         <v>212782556146</v>
       </c>
+      <c r="E183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -4114,6 +4301,7 @@
       <c r="D184" t="n">
         <v>212625748504</v>
       </c>
+      <c r="E184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -4134,6 +4322,7 @@
       <c r="D185" t="n">
         <v>212777272412</v>
       </c>
+      <c r="E185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -4154,6 +4343,7 @@
       <c r="D186" t="n">
         <v>212774972278</v>
       </c>
+      <c r="E186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -4174,6 +4364,7 @@
       <c r="D187" t="n">
         <v>212620172877</v>
       </c>
+      <c r="E187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -4194,6 +4385,7 @@
       <c r="D188" t="n">
         <v>212708467431</v>
       </c>
+      <c r="E188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -4214,6 +4406,7 @@
       <c r="D189" t="n">
         <v>212620822760</v>
       </c>
+      <c r="E189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -4234,6 +4427,7 @@
       <c r="D190" t="n">
         <v>212690063919</v>
       </c>
+      <c r="E190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -4254,6 +4448,7 @@
       <c r="D191" t="n">
         <v>212774194439</v>
       </c>
+      <c r="E191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -4274,6 +4469,7 @@
       <c r="D192" t="n">
         <v>212657275398</v>
       </c>
+      <c r="E192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -4294,6 +4490,7 @@
       <c r="D193" t="n">
         <v>212771812555</v>
       </c>
+      <c r="E193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -4314,6 +4511,7 @@
       <c r="D194" t="n">
         <v>212656560535</v>
       </c>
+      <c r="E194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -4334,6 +4532,7 @@
       <c r="D195" t="n">
         <v>212621250331</v>
       </c>
+      <c r="E195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -4354,6 +4553,7 @@
       <c r="D196" t="n">
         <v>212625839423</v>
       </c>
+      <c r="E196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -4374,6 +4574,7 @@
       <c r="D197" t="n">
         <v>212771812296</v>
       </c>
+      <c r="E197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -4394,6 +4595,7 @@
       <c r="D198" t="n">
         <v>212777687162</v>
       </c>
+      <c r="E198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -4414,6 +4616,7 @@
       <c r="D199" t="n">
         <v>212612906995</v>
       </c>
+      <c r="E199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -4434,6 +4637,7 @@
       <c r="D200" t="n">
         <v>212617451617</v>
       </c>
+      <c r="E200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -4454,6 +4658,7 @@
       <c r="D201" t="n">
         <v>212657260616</v>
       </c>
+      <c r="E201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -4474,6 +4679,7 @@
       <c r="D202" t="n">
         <v>212771813037</v>
       </c>
+      <c r="E202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -4494,6 +4700,7 @@
       <c r="D203" t="n">
         <v>212674907498</v>
       </c>
+      <c r="E203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -4514,6 +4721,7 @@
       <c r="D204" t="n">
         <v>212775247156</v>
       </c>
+      <c r="E204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -4534,6 +4742,7 @@
       <c r="D205" t="n">
         <v>212617356711</v>
       </c>
+      <c r="E205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -4554,6 +4763,7 @@
       <c r="D206" t="n">
         <v>212782822155</v>
       </c>
+      <c r="E206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -4574,6 +4784,7 @@
       <c r="D207" t="n">
         <v>212771812372</v>
       </c>
+      <c r="E207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -4594,6 +4805,7 @@
       <c r="D208" t="n">
         <v>212617456846</v>
       </c>
+      <c r="E208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -4614,6 +4826,7 @@
       <c r="D209" t="n">
         <v>212621250061</v>
       </c>
+      <c r="E209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -4634,6 +4847,7 @@
       <c r="D210" t="n">
         <v>212614010813</v>
       </c>
+      <c r="E210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -4654,6 +4868,7 @@
       <c r="D211" t="n">
         <v>212782816650</v>
       </c>
+      <c r="E211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -4674,6 +4889,7 @@
       <c r="D212" t="n">
         <v>212782061335</v>
       </c>
+      <c r="E212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -4694,6 +4910,7 @@
       <c r="D213" t="n">
         <v>212621248268</v>
       </c>
+      <c r="E213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -4714,6 +4931,7 @@
       <c r="D214" t="n">
         <v>212657261366</v>
       </c>
+      <c r="E214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -4734,6 +4952,7 @@
       <c r="D215" t="n">
         <v>212656475213</v>
       </c>
+      <c r="E215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -4754,6 +4973,7 @@
       <c r="D216" t="n">
         <v>212782822152</v>
       </c>
+      <c r="E216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -4774,6 +4994,7 @@
       <c r="D217" t="n">
         <v>212617338268</v>
       </c>
+      <c r="E217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -4794,6 +5015,7 @@
       <c r="D218" t="n">
         <v>212782822153</v>
       </c>
+      <c r="E218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -4814,6 +5036,7 @@
       <c r="D219" t="n">
         <v>212621250298</v>
       </c>
+      <c r="E219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -4834,6 +5057,7 @@
       <c r="D220" t="n">
         <v>212657239324</v>
       </c>
+      <c r="E220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -4854,6 +5078,7 @@
       <c r="D221" t="n">
         <v>212674876422</v>
       </c>
+      <c r="E221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -4874,6 +5099,7 @@
       <c r="D222" t="n">
         <v>212657279366</v>
       </c>
+      <c r="E222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -4894,6 +5120,7 @@
       <c r="D223" t="n">
         <v>212612273402</v>
       </c>
+      <c r="E223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -4914,6 +5141,7 @@
       <c r="D224" t="n">
         <v>212621245300</v>
       </c>
+      <c r="E224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -4934,6 +5162,7 @@
       <c r="D225" t="n">
         <v>212693040747</v>
       </c>
+      <c r="E225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -4954,6 +5183,7 @@
       <c r="D226" t="n">
         <v>212621251870</v>
       </c>
+      <c r="E226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -4974,6 +5204,7 @@
       <c r="D227" t="n">
         <v>212617335057</v>
       </c>
+      <c r="E227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -4994,6 +5225,7 @@
       <c r="D228" t="n">
         <v>212771453413</v>
       </c>
+      <c r="E228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -5014,6 +5246,7 @@
       <c r="D229" t="n">
         <v>212782823894</v>
       </c>
+      <c r="E229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -5034,6 +5267,7 @@
       <c r="D230" t="n">
         <v>212782733117</v>
       </c>
+      <c r="E230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -5054,6 +5288,7 @@
       <c r="D231" t="n">
         <v>212782093715</v>
       </c>
+      <c r="E231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -5074,6 +5309,7 @@
       <c r="D232" t="n">
         <v>212612623115</v>
       </c>
+      <c r="E232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -5094,6 +5330,7 @@
       <c r="D233" t="n">
         <v>212771452602</v>
       </c>
+      <c r="E233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -5114,6 +5351,7 @@
       <c r="D234" t="n">
         <v>212657290089</v>
       </c>
+      <c r="E234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -5134,6 +5372,7 @@
       <c r="D235" t="n">
         <v>212621251411</v>
       </c>
+      <c r="E235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -5154,6 +5393,7 @@
       <c r="D236" t="n">
         <v>212781888565</v>
       </c>
+      <c r="E236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -5174,6 +5414,7 @@
       <c r="D237" t="n">
         <v>212782556210</v>
       </c>
+      <c r="E237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -5194,6 +5435,7 @@
       <c r="D238" t="n">
         <v>212620171438</v>
       </c>
+      <c r="E238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -5214,6 +5456,7 @@
       <c r="D239" t="n">
         <v>212620819617</v>
       </c>
+      <c r="E239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -5234,6 +5477,7 @@
       <c r="D240" t="n">
         <v>212779759147</v>
       </c>
+      <c r="E240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -5254,6 +5498,7 @@
       <c r="D241" t="n">
         <v>212656409578</v>
       </c>
+      <c r="E241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -5274,6 +5519,7 @@
       <c r="D242" t="n">
         <v>212617455803</v>
       </c>
+      <c r="E242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -5294,6 +5540,7 @@
       <c r="D243" t="n">
         <v>212657267047</v>
       </c>
+      <c r="E243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -5314,6 +5561,7 @@
       <c r="D244" t="n">
         <v>212617323868</v>
       </c>
+      <c r="E244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -5334,6 +5582,7 @@
       <c r="D245" t="n">
         <v>212770616560</v>
       </c>
+      <c r="E245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -5354,6 +5603,7 @@
       <c r="D246" t="n">
         <v>212782547889</v>
       </c>
+      <c r="E246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -5374,6 +5624,7 @@
       <c r="D247" t="n">
         <v>212612444009</v>
       </c>
+      <c r="E247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -5394,6 +5645,7 @@
       <c r="D248" t="n">
         <v>212674850337</v>
       </c>
+      <c r="E248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -5414,6 +5666,7 @@
       <c r="D249" t="n">
         <v>212614336845</v>
       </c>
+      <c r="E249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -5434,6 +5687,7 @@
       <c r="D250" t="n">
         <v>212614317479</v>
       </c>
+      <c r="E250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -5454,6 +5708,7 @@
       <c r="D251" t="n">
         <v>212612870722</v>
       </c>
+      <c r="E251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -5474,6 +5729,7 @@
       <c r="D252" t="n">
         <v>212657269369</v>
       </c>
+      <c r="E252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -5494,6 +5750,7 @@
       <c r="D253" t="n">
         <v>212771812095</v>
       </c>
+      <c r="E253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -5514,6 +5771,7 @@
       <c r="D254" t="n">
         <v>212782825697</v>
       </c>
+      <c r="E254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -5534,6 +5792,7 @@
       <c r="D255" t="n">
         <v>212782556216</v>
       </c>
+      <c r="E255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -5551,9 +5810,35 @@
           <t>2024-10-22 20:12:08</t>
         </is>
       </c>
-      <c r="D256" t="inlineStr">
-        <is>
-          <t>212621250788</t>
+      <c r="D256" t="n">
+        <v>212621250788</v>
+      </c>
+      <c r="E256" t="inlineStr"/>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Group 89 - 6378</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>https://t.me/+u4ihZqW-YUZiZWI0</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>2024-10-23 01:31:06</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>212771812296</t>
+        </is>
+      </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>89</t>
         </is>
       </c>
     </row>

--- a/created_groups.xlsx
+++ b/created_groups.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E257"/>
+  <dimension ref="A1:E258"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5831,14 +5831,37 @@
           <t>2024-10-23 01:31:06</t>
         </is>
       </c>
-      <c r="D257" t="inlineStr">
-        <is>
-          <t>212771812296</t>
-        </is>
-      </c>
-      <c r="E257" t="inlineStr">
-        <is>
-          <t>89</t>
+      <c r="D257" t="n">
+        <v>212771812296</v>
+      </c>
+      <c r="E257" t="n">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Group 43 - 1261</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>https://t.me/+WK0nWYzotOE3NGQ0</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>2024-10-23 09:49:03</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>212621248268</t>
+        </is>
+      </c>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>43</t>
         </is>
       </c>
     </row>
